--- a/中間報告/data/pressure.xlsx
+++ b/中間報告/data/pressure.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13CB5D7-9EEC-4B70-A8CF-CE48E94B4F1D}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCAEEEEA-846B-4C8B-BADB-24DD2DC37DC1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,9 +20,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Time</t>
+    <t>frame</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -101,17 +106,17 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.2772351656872893E-2"/>
-          <c:y val="3.1473533619456366E-2"/>
-          <c:w val="0.90207339980342416"/>
-          <c:h val="0.93705293276108725"/>
+          <c:x val="6.8633167188949393E-2"/>
+          <c:y val="2.564102564102564E-2"/>
+          <c:w val="0.89376964293290129"/>
+          <c:h val="0.89277389277389274"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -134,7 +139,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="00B0F0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -145,369 +150,369 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$122</c:f>
+              <c:f>Sheet1!$A$3:$A$122</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="120"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>8.0000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>1.2E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>1.4E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>1.6E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>1.7999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>2.1999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>2.4E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>2.5999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>2.8000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>3.2000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>3.4000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>3.5999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>3.7999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>4.2000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21</c:v>
+                  <c:v>4.3999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22</c:v>
+                  <c:v>4.5999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23</c:v>
+                  <c:v>4.8000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>24</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>25</c:v>
+                  <c:v>5.1999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>26</c:v>
+                  <c:v>5.3999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>27</c:v>
+                  <c:v>5.6000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>28</c:v>
+                  <c:v>5.8000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>29</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>30</c:v>
+                  <c:v>6.2E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>31</c:v>
+                  <c:v>6.4000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>32</c:v>
+                  <c:v>6.6000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>33</c:v>
+                  <c:v>6.8000000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>34</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>35</c:v>
+                  <c:v>7.1999999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>36</c:v>
+                  <c:v>7.3999999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>37</c:v>
+                  <c:v>7.5999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>38</c:v>
+                  <c:v>7.8E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>39</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>40</c:v>
+                  <c:v>8.2000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41</c:v>
+                  <c:v>8.4000000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>42</c:v>
+                  <c:v>8.5999999999999993E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>43</c:v>
+                  <c:v>8.7999999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>44</c:v>
+                  <c:v>0.09</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>45</c:v>
+                  <c:v>9.1999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>46</c:v>
+                  <c:v>9.4E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>47</c:v>
+                  <c:v>9.6000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>48</c:v>
+                  <c:v>9.8000000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>49</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>50</c:v>
+                  <c:v>0.10199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>51</c:v>
+                  <c:v>0.104</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>52</c:v>
+                  <c:v>0.106</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>53</c:v>
+                  <c:v>0.108</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>54</c:v>
+                  <c:v>0.11</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>55</c:v>
+                  <c:v>0.112</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>56</c:v>
+                  <c:v>0.114</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>57</c:v>
+                  <c:v>0.11600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>58</c:v>
+                  <c:v>0.11799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>59</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>60</c:v>
+                  <c:v>0.122</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>61</c:v>
+                  <c:v>0.124</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>62</c:v>
+                  <c:v>0.126</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>63</c:v>
+                  <c:v>0.128</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>64</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>65</c:v>
+                  <c:v>0.13200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>66</c:v>
+                  <c:v>0.13400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>67</c:v>
+                  <c:v>0.13600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>68</c:v>
+                  <c:v>0.13800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>69</c:v>
+                  <c:v>0.14000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>70</c:v>
+                  <c:v>0.14199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>71</c:v>
+                  <c:v>0.14399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>72</c:v>
+                  <c:v>0.14599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>73</c:v>
+                  <c:v>0.14799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>74</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>75</c:v>
+                  <c:v>0.152</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>76</c:v>
+                  <c:v>0.154</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>77</c:v>
+                  <c:v>0.156</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>78</c:v>
+                  <c:v>0.158</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>79</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>80</c:v>
+                  <c:v>0.16200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>81</c:v>
+                  <c:v>0.16400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>82</c:v>
+                  <c:v>0.16600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>83</c:v>
+                  <c:v>0.16800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>84</c:v>
+                  <c:v>0.17</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>85</c:v>
+                  <c:v>0.17199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>86</c:v>
+                  <c:v>0.17399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>87</c:v>
+                  <c:v>0.17599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>88</c:v>
+                  <c:v>0.17799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>89</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>90</c:v>
+                  <c:v>0.182</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>91</c:v>
+                  <c:v>0.184</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>92</c:v>
+                  <c:v>0.186</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>93</c:v>
+                  <c:v>0.188</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>94</c:v>
+                  <c:v>0.19</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>95</c:v>
+                  <c:v>0.192</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>96</c:v>
+                  <c:v>0.19400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>97</c:v>
+                  <c:v>0.19600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>98</c:v>
+                  <c:v>0.19800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>99</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>100</c:v>
+                  <c:v>0.20200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>101</c:v>
+                  <c:v>0.20399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>102</c:v>
+                  <c:v>0.20599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>103</c:v>
+                  <c:v>0.20799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>104</c:v>
+                  <c:v>0.21</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>105</c:v>
+                  <c:v>0.21199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>106</c:v>
+                  <c:v>0.214</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>107</c:v>
+                  <c:v>0.216</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>108</c:v>
+                  <c:v>0.218</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>109</c:v>
+                  <c:v>0.22</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>110</c:v>
+                  <c:v>0.222</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>111</c:v>
+                  <c:v>0.224</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>112</c:v>
+                  <c:v>0.22600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>113</c:v>
+                  <c:v>0.22800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>114</c:v>
+                  <c:v>0.23</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>115</c:v>
+                  <c:v>0.23200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>116</c:v>
+                  <c:v>0.23400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>117</c:v>
+                  <c:v>0.23599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>118</c:v>
+                  <c:v>0.23799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>119</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -905,7 +910,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -916,369 +921,369 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$122</c:f>
+              <c:f>Sheet1!$A$3:$A$122</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="120"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>8.0000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>1.2E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>1.4E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>1.6E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>1.7999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>2.1999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>2.4E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>2.5999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>2.8000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>3.2000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>3.4000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>3.5999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>3.7999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>4.2000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21</c:v>
+                  <c:v>4.3999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22</c:v>
+                  <c:v>4.5999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23</c:v>
+                  <c:v>4.8000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>24</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>25</c:v>
+                  <c:v>5.1999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>26</c:v>
+                  <c:v>5.3999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>27</c:v>
+                  <c:v>5.6000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>28</c:v>
+                  <c:v>5.8000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>29</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>30</c:v>
+                  <c:v>6.2E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>31</c:v>
+                  <c:v>6.4000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>32</c:v>
+                  <c:v>6.6000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>33</c:v>
+                  <c:v>6.8000000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>34</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>35</c:v>
+                  <c:v>7.1999999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>36</c:v>
+                  <c:v>7.3999999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>37</c:v>
+                  <c:v>7.5999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>38</c:v>
+                  <c:v>7.8E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>39</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>40</c:v>
+                  <c:v>8.2000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41</c:v>
+                  <c:v>8.4000000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>42</c:v>
+                  <c:v>8.5999999999999993E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>43</c:v>
+                  <c:v>8.7999999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>44</c:v>
+                  <c:v>0.09</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>45</c:v>
+                  <c:v>9.1999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>46</c:v>
+                  <c:v>9.4E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>47</c:v>
+                  <c:v>9.6000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>48</c:v>
+                  <c:v>9.8000000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>49</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>50</c:v>
+                  <c:v>0.10199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>51</c:v>
+                  <c:v>0.104</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>52</c:v>
+                  <c:v>0.106</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>53</c:v>
+                  <c:v>0.108</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>54</c:v>
+                  <c:v>0.11</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>55</c:v>
+                  <c:v>0.112</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>56</c:v>
+                  <c:v>0.114</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>57</c:v>
+                  <c:v>0.11600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>58</c:v>
+                  <c:v>0.11799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>59</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>60</c:v>
+                  <c:v>0.122</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>61</c:v>
+                  <c:v>0.124</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>62</c:v>
+                  <c:v>0.126</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>63</c:v>
+                  <c:v>0.128</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>64</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>65</c:v>
+                  <c:v>0.13200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>66</c:v>
+                  <c:v>0.13400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>67</c:v>
+                  <c:v>0.13600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>68</c:v>
+                  <c:v>0.13800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>69</c:v>
+                  <c:v>0.14000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>70</c:v>
+                  <c:v>0.14199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>71</c:v>
+                  <c:v>0.14399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>72</c:v>
+                  <c:v>0.14599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>73</c:v>
+                  <c:v>0.14799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>74</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>75</c:v>
+                  <c:v>0.152</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>76</c:v>
+                  <c:v>0.154</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>77</c:v>
+                  <c:v>0.156</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>78</c:v>
+                  <c:v>0.158</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>79</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>80</c:v>
+                  <c:v>0.16200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>81</c:v>
+                  <c:v>0.16400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>82</c:v>
+                  <c:v>0.16600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>83</c:v>
+                  <c:v>0.16800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>84</c:v>
+                  <c:v>0.17</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>85</c:v>
+                  <c:v>0.17199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>86</c:v>
+                  <c:v>0.17399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>87</c:v>
+                  <c:v>0.17599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>88</c:v>
+                  <c:v>0.17799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>89</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>90</c:v>
+                  <c:v>0.182</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>91</c:v>
+                  <c:v>0.184</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>92</c:v>
+                  <c:v>0.186</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>93</c:v>
+                  <c:v>0.188</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>94</c:v>
+                  <c:v>0.19</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>95</c:v>
+                  <c:v>0.192</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>96</c:v>
+                  <c:v>0.19400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>97</c:v>
+                  <c:v>0.19600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>98</c:v>
+                  <c:v>0.19800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>99</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>100</c:v>
+                  <c:v>0.20200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>101</c:v>
+                  <c:v>0.20399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>102</c:v>
+                  <c:v>0.20599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>103</c:v>
+                  <c:v>0.20799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>104</c:v>
+                  <c:v>0.21</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>105</c:v>
+                  <c:v>0.21199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>106</c:v>
+                  <c:v>0.214</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>107</c:v>
+                  <c:v>0.216</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>108</c:v>
+                  <c:v>0.218</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>109</c:v>
+                  <c:v>0.22</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>110</c:v>
+                  <c:v>0.222</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>111</c:v>
+                  <c:v>0.224</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>112</c:v>
+                  <c:v>0.22600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>113</c:v>
+                  <c:v>0.22800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>114</c:v>
+                  <c:v>0.23</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>115</c:v>
+                  <c:v>0.23200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>116</c:v>
+                  <c:v>0.23400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>117</c:v>
+                  <c:v>0.23599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>118</c:v>
+                  <c:v>0.23799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>119</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1676,7 +1681,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:srgbClr val="92D050"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1687,369 +1692,369 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$122</c:f>
+              <c:f>Sheet1!$A$3:$A$122</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="120"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>4.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>6.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>8.0000000000000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>0.01</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>1.2E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>1.4E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>1.6E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>1.7999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>0.02</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>2.1999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>2.4E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>2.5999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>2.8000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>3.2000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>3.4000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>3.5999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>3.7999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>4.2000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21</c:v>
+                  <c:v>4.3999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22</c:v>
+                  <c:v>4.5999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23</c:v>
+                  <c:v>4.8000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>24</c:v>
+                  <c:v>0.05</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>25</c:v>
+                  <c:v>5.1999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>26</c:v>
+                  <c:v>5.3999999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>27</c:v>
+                  <c:v>5.6000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>28</c:v>
+                  <c:v>5.8000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>29</c:v>
+                  <c:v>0.06</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>30</c:v>
+                  <c:v>6.2E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>31</c:v>
+                  <c:v>6.4000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>32</c:v>
+                  <c:v>6.6000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>33</c:v>
+                  <c:v>6.8000000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>34</c:v>
+                  <c:v>7.0000000000000007E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>35</c:v>
+                  <c:v>7.1999999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>36</c:v>
+                  <c:v>7.3999999999999996E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>37</c:v>
+                  <c:v>7.5999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>38</c:v>
+                  <c:v>7.8E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>39</c:v>
+                  <c:v>0.08</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>40</c:v>
+                  <c:v>8.2000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>41</c:v>
+                  <c:v>8.4000000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>42</c:v>
+                  <c:v>8.5999999999999993E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>43</c:v>
+                  <c:v>8.7999999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>44</c:v>
+                  <c:v>0.09</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>45</c:v>
+                  <c:v>9.1999999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>46</c:v>
+                  <c:v>9.4E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>47</c:v>
+                  <c:v>9.6000000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>48</c:v>
+                  <c:v>9.8000000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>49</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>50</c:v>
+                  <c:v>0.10199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>51</c:v>
+                  <c:v>0.104</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>52</c:v>
+                  <c:v>0.106</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>53</c:v>
+                  <c:v>0.108</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>54</c:v>
+                  <c:v>0.11</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>55</c:v>
+                  <c:v>0.112</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>56</c:v>
+                  <c:v>0.114</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>57</c:v>
+                  <c:v>0.11600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>58</c:v>
+                  <c:v>0.11799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>59</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>60</c:v>
+                  <c:v>0.122</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>61</c:v>
+                  <c:v>0.124</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>62</c:v>
+                  <c:v>0.126</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>63</c:v>
+                  <c:v>0.128</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>64</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>65</c:v>
+                  <c:v>0.13200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>66</c:v>
+                  <c:v>0.13400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>67</c:v>
+                  <c:v>0.13600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>68</c:v>
+                  <c:v>0.13800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>69</c:v>
+                  <c:v>0.14000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>70</c:v>
+                  <c:v>0.14199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>71</c:v>
+                  <c:v>0.14399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>72</c:v>
+                  <c:v>0.14599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>73</c:v>
+                  <c:v>0.14799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>74</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>75</c:v>
+                  <c:v>0.152</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>76</c:v>
+                  <c:v>0.154</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>77</c:v>
+                  <c:v>0.156</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>78</c:v>
+                  <c:v>0.158</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>79</c:v>
+                  <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>80</c:v>
+                  <c:v>0.16200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>81</c:v>
+                  <c:v>0.16400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>82</c:v>
+                  <c:v>0.16600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>83</c:v>
+                  <c:v>0.16800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>84</c:v>
+                  <c:v>0.17</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>85</c:v>
+                  <c:v>0.17199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>86</c:v>
+                  <c:v>0.17399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>87</c:v>
+                  <c:v>0.17599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>88</c:v>
+                  <c:v>0.17799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>89</c:v>
+                  <c:v>0.18</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>90</c:v>
+                  <c:v>0.182</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>91</c:v>
+                  <c:v>0.184</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>92</c:v>
+                  <c:v>0.186</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>93</c:v>
+                  <c:v>0.188</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>94</c:v>
+                  <c:v>0.19</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>95</c:v>
+                  <c:v>0.192</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>96</c:v>
+                  <c:v>0.19400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>97</c:v>
+                  <c:v>0.19600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>98</c:v>
+                  <c:v>0.19800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>99</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>100</c:v>
+                  <c:v>0.20200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>101</c:v>
+                  <c:v>0.20399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>102</c:v>
+                  <c:v>0.20599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>103</c:v>
+                  <c:v>0.20799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>104</c:v>
+                  <c:v>0.21</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>105</c:v>
+                  <c:v>0.21199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>106</c:v>
+                  <c:v>0.214</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>107</c:v>
+                  <c:v>0.216</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>108</c:v>
+                  <c:v>0.218</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>109</c:v>
+                  <c:v>0.22</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>110</c:v>
+                  <c:v>0.222</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>111</c:v>
+                  <c:v>0.224</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>112</c:v>
+                  <c:v>0.22600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>113</c:v>
+                  <c:v>0.22800000000000001</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>114</c:v>
+                  <c:v>0.23</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>115</c:v>
+                  <c:v>0.23200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>116</c:v>
+                  <c:v>0.23400000000000001</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>117</c:v>
+                  <c:v>0.23599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>118</c:v>
+                  <c:v>0.23799999999999999</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>119</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2445,26 +2450,80 @@
         <c:axId val="356319952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="120"/>
+          <c:max val="0.24000000000000002"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>時間 </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>[s]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.47365224111460064"/>
+              <c:y val="0.93706293706293708"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -2526,6 +2585,78 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>Punch</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>上部圧力 </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>[Pa]</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.4561999144625876E-2"/>
+              <c:y val="0.35081585081585082"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2581,10 +2712,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.67759220003655973"/>
-          <c:y val="8.1365730571232239E-2"/>
-          <c:w val="8.764483882501288E-2"/>
-          <c:h val="0.21924278778457415"/>
+          <c:x val="0.59830725359549508"/>
+          <c:y val="0.15944588220178776"/>
+          <c:w val="7.9508515329657289E-2"/>
+          <c:h val="0.11800781895270085"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3220,16 +3351,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>23811</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>547686</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3520,15 +3651,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:E122"/>
+  <dimension ref="A2:E122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="2" spans="2:5">
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3542,7 +3676,10 @@
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2E-3</v>
+      </c>
       <c r="B3" s="1">
         <v>0</v>
       </c>
@@ -3556,7 +3693,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>4.0000000000000001E-3</v>
+      </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -3570,7 +3710,10 @@
         <v>-138.14400000000001</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>6.0000000000000001E-3</v>
+      </c>
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -3584,7 +3727,10 @@
         <v>-68.590999999999994</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>8.0000000000000002E-3</v>
+      </c>
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -3598,7 +3744,10 @@
         <v>-25.456299999999999</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>0.01</v>
+      </c>
       <c r="B7" s="1">
         <v>4</v>
       </c>
@@ -3612,7 +3761,10 @@
         <v>-1.2756099999999999</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>1.2E-2</v>
+      </c>
       <c r="B8" s="1">
         <v>5</v>
       </c>
@@ -3626,7 +3778,10 @@
         <v>12.7736</v>
       </c>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>1.4E-2</v>
+      </c>
       <c r="B9" s="1">
         <v>6</v>
       </c>
@@ -3640,7 +3795,10 @@
         <v>19.6691</v>
       </c>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>1.6E-2</v>
+      </c>
       <c r="B10" s="1">
         <v>7</v>
       </c>
@@ -3654,7 +3812,10 @@
         <v>28.573499999999999</v>
       </c>
     </row>
-    <row r="11" spans="2:5">
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>1.7999999999999999E-2</v>
+      </c>
       <c r="B11" s="1">
         <v>8</v>
       </c>
@@ -3668,7 +3829,10 @@
         <v>34.419699999999999</v>
       </c>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>0.02</v>
+      </c>
       <c r="B12" s="1">
         <v>9</v>
       </c>
@@ -3682,7 +3846,10 @@
         <v>36.903500000000001</v>
       </c>
     </row>
-    <row r="13" spans="2:5">
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>2.1999999999999999E-2</v>
+      </c>
       <c r="B13" s="1">
         <v>10</v>
       </c>
@@ -3696,7 +3863,10 @@
         <v>39.503799999999998</v>
       </c>
     </row>
-    <row r="14" spans="2:5">
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>2.4E-2</v>
+      </c>
       <c r="B14" s="1">
         <v>11</v>
       </c>
@@ -3710,7 +3880,10 @@
         <v>40.945</v>
       </c>
     </row>
-    <row r="15" spans="2:5">
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>2.5999999999999999E-2</v>
+      </c>
       <c r="B15" s="1">
         <v>12</v>
       </c>
@@ -3724,7 +3897,10 @@
         <v>45.510399999999997</v>
       </c>
     </row>
-    <row r="16" spans="2:5">
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>2.8000000000000001E-2</v>
+      </c>
       <c r="B16" s="1">
         <v>13</v>
       </c>
@@ -3738,7 +3914,10 @@
         <v>48.2699</v>
       </c>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>0.03</v>
+      </c>
       <c r="B17" s="1">
         <v>14</v>
       </c>
@@ -3752,7 +3931,10 @@
         <v>48.8504</v>
       </c>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>3.2000000000000001E-2</v>
+      </c>
       <c r="B18" s="1">
         <v>15</v>
       </c>
@@ -3766,7 +3948,10 @@
         <v>34.374400000000001</v>
       </c>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>3.4000000000000002E-2</v>
+      </c>
       <c r="B19" s="1">
         <v>16</v>
       </c>
@@ -3780,7 +3965,10 @@
         <v>46.696399999999997</v>
       </c>
     </row>
-    <row r="20" spans="2:5">
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>3.5999999999999997E-2</v>
+      </c>
       <c r="B20" s="1">
         <v>17</v>
       </c>
@@ -3794,7 +3982,10 @@
         <v>49.002699999999997</v>
       </c>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>3.7999999999999999E-2</v>
+      </c>
       <c r="B21" s="1">
         <v>18</v>
       </c>
@@ -3808,7 +3999,10 @@
         <v>55.829300000000003</v>
       </c>
     </row>
-    <row r="22" spans="2:5">
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>0.04</v>
+      </c>
       <c r="B22" s="1">
         <v>19</v>
       </c>
@@ -3822,7 +4016,10 @@
         <v>54.923000000000002</v>
       </c>
     </row>
-    <row r="23" spans="2:5">
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>4.2000000000000003E-2</v>
+      </c>
       <c r="B23" s="1">
         <v>20</v>
       </c>
@@ -3836,7 +4033,10 @@
         <v>43.294699999999999</v>
       </c>
     </row>
-    <row r="24" spans="2:5">
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>4.3999999999999997E-2</v>
+      </c>
       <c r="B24" s="1">
         <v>21</v>
       </c>
@@ -3850,7 +4050,10 @@
         <v>46.694099999999999</v>
       </c>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>4.5999999999999999E-2</v>
+      </c>
       <c r="B25" s="1">
         <v>22</v>
       </c>
@@ -3864,7 +4067,10 @@
         <v>51.510100000000001</v>
       </c>
     </row>
-    <row r="26" spans="2:5">
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>4.8000000000000001E-2</v>
+      </c>
       <c r="B26" s="1">
         <v>23</v>
       </c>
@@ -3878,7 +4084,10 @@
         <v>57.030299999999997</v>
       </c>
     </row>
-    <row r="27" spans="2:5">
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>0.05</v>
+      </c>
       <c r="B27" s="1">
         <v>24</v>
       </c>
@@ -3892,7 +4101,10 @@
         <v>55.214599999999997</v>
       </c>
     </row>
-    <row r="28" spans="2:5">
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>5.1999999999999998E-2</v>
+      </c>
       <c r="B28" s="1">
         <v>25</v>
       </c>
@@ -3906,7 +4118,10 @@
         <v>55.019100000000002</v>
       </c>
     </row>
-    <row r="29" spans="2:5">
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>5.3999999999999999E-2</v>
+      </c>
       <c r="B29" s="1">
         <v>26</v>
       </c>
@@ -3920,7 +4135,10 @@
         <v>45.991999999999997</v>
       </c>
     </row>
-    <row r="30" spans="2:5">
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>5.6000000000000001E-2</v>
+      </c>
       <c r="B30" s="1">
         <v>27</v>
       </c>
@@ -3934,7 +4152,10 @@
         <v>51.890500000000003</v>
       </c>
     </row>
-    <row r="31" spans="2:5">
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>5.8000000000000003E-2</v>
+      </c>
       <c r="B31" s="1">
         <v>28</v>
       </c>
@@ -3948,7 +4169,10 @@
         <v>57.350700000000003</v>
       </c>
     </row>
-    <row r="32" spans="2:5">
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>0.06</v>
+      </c>
       <c r="B32" s="1">
         <v>29</v>
       </c>
@@ -3962,7 +4186,10 @@
         <v>55.323900000000002</v>
       </c>
     </row>
-    <row r="33" spans="2:5">
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>6.2E-2</v>
+      </c>
       <c r="B33" s="1">
         <v>30</v>
       </c>
@@ -3976,7 +4203,10 @@
         <v>54.673999999999999</v>
       </c>
     </row>
-    <row r="34" spans="2:5">
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>6.4000000000000001E-2</v>
+      </c>
       <c r="B34" s="1">
         <v>31</v>
       </c>
@@ -3990,7 +4220,10 @@
         <v>44.417400000000001</v>
       </c>
     </row>
-    <row r="35" spans="2:5">
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>6.6000000000000003E-2</v>
+      </c>
       <c r="B35" s="1">
         <v>32</v>
       </c>
@@ -4004,7 +4237,10 @@
         <v>52.528799999999997</v>
       </c>
     </row>
-    <row r="36" spans="2:5">
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>6.8000000000000005E-2</v>
+      </c>
       <c r="B36" s="1">
         <v>33</v>
       </c>
@@ -4018,7 +4254,10 @@
         <v>57.137700000000002</v>
       </c>
     </row>
-    <row r="37" spans="2:5">
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>7.0000000000000007E-2</v>
+      </c>
       <c r="B37" s="1">
         <v>34</v>
       </c>
@@ -4032,7 +4271,10 @@
         <v>121.401</v>
       </c>
     </row>
-    <row r="38" spans="2:5">
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>7.1999999999999995E-2</v>
+      </c>
       <c r="B38" s="1">
         <v>35</v>
       </c>
@@ -4046,7 +4288,10 @@
         <v>55.711300000000001</v>
       </c>
     </row>
-    <row r="39" spans="2:5">
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>7.3999999999999996E-2</v>
+      </c>
       <c r="B39" s="1">
         <v>36</v>
       </c>
@@ -4060,7 +4305,10 @@
         <v>47.187199999999997</v>
       </c>
     </row>
-    <row r="40" spans="2:5">
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>7.5999999999999998E-2</v>
+      </c>
       <c r="B40" s="1">
         <v>37</v>
       </c>
@@ -4074,7 +4322,10 @@
         <v>46.729500000000002</v>
       </c>
     </row>
-    <row r="41" spans="2:5">
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>7.8E-2</v>
+      </c>
       <c r="B41" s="1">
         <v>38</v>
       </c>
@@ -4088,7 +4339,10 @@
         <v>47.586799999999997</v>
       </c>
     </row>
-    <row r="42" spans="2:5">
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>0.08</v>
+      </c>
       <c r="B42" s="1">
         <v>39</v>
       </c>
@@ -4102,7 +4356,10 @@
         <v>48.6937</v>
       </c>
     </row>
-    <row r="43" spans="2:5">
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>8.2000000000000003E-2</v>
+      </c>
       <c r="B43" s="1">
         <v>40</v>
       </c>
@@ -4116,7 +4373,10 @@
         <v>49.284799999999997</v>
       </c>
     </row>
-    <row r="44" spans="2:5">
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>8.4000000000000005E-2</v>
+      </c>
       <c r="B44" s="1">
         <v>41</v>
       </c>
@@ -4130,7 +4390,10 @@
         <v>49.712499999999999</v>
       </c>
     </row>
-    <row r="45" spans="2:5">
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>8.5999999999999993E-2</v>
+      </c>
       <c r="B45" s="1">
         <v>42</v>
       </c>
@@ -4144,7 +4407,10 @@
         <v>50.058999999999997</v>
       </c>
     </row>
-    <row r="46" spans="2:5">
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>8.7999999999999995E-2</v>
+      </c>
       <c r="B46" s="1">
         <v>43</v>
       </c>
@@ -4158,7 +4424,10 @@
         <v>49.849899999999998</v>
       </c>
     </row>
-    <row r="47" spans="2:5">
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>0.09</v>
+      </c>
       <c r="B47" s="1">
         <v>44</v>
       </c>
@@ -4172,7 +4441,10 @@
         <v>49.860999999999997</v>
       </c>
     </row>
-    <row r="48" spans="2:5">
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>9.1999999999999998E-2</v>
+      </c>
       <c r="B48" s="1">
         <v>45</v>
       </c>
@@ -4186,7 +4458,10 @@
         <v>49.775100000000002</v>
       </c>
     </row>
-    <row r="49" spans="2:5">
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>9.4E-2</v>
+      </c>
       <c r="B49" s="1">
         <v>46</v>
       </c>
@@ -4200,7 +4475,10 @@
         <v>49.437399999999997</v>
       </c>
     </row>
-    <row r="50" spans="2:5">
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>9.6000000000000002E-2</v>
+      </c>
       <c r="B50" s="1">
         <v>47</v>
       </c>
@@ -4214,7 +4492,10 @@
         <v>49.389200000000002</v>
       </c>
     </row>
-    <row r="51" spans="2:5">
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>9.8000000000000004E-2</v>
+      </c>
       <c r="B51" s="1">
         <v>48</v>
       </c>
@@ -4228,7 +4509,10 @@
         <v>48.9666</v>
       </c>
     </row>
-    <row r="52" spans="2:5">
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>0.1</v>
+      </c>
       <c r="B52" s="1">
         <v>49</v>
       </c>
@@ -4242,7 +4526,10 @@
         <v>48.771299999999997</v>
       </c>
     </row>
-    <row r="53" spans="2:5">
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>0.10199999999999999</v>
+      </c>
       <c r="B53" s="1">
         <v>50</v>
       </c>
@@ -4256,7 +4543,10 @@
         <v>48.536200000000001</v>
       </c>
     </row>
-    <row r="54" spans="2:5">
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>0.104</v>
+      </c>
       <c r="B54" s="1">
         <v>51</v>
       </c>
@@ -4270,7 +4560,10 @@
         <v>48.420400000000001</v>
       </c>
     </row>
-    <row r="55" spans="2:5">
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>0.106</v>
+      </c>
       <c r="B55" s="1">
         <v>52</v>
       </c>
@@ -4284,7 +4577,10 @@
         <v>48.212499999999999</v>
       </c>
     </row>
-    <row r="56" spans="2:5">
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <v>0.108</v>
+      </c>
       <c r="B56" s="1">
         <v>53</v>
       </c>
@@ -4298,7 +4594,10 @@
         <v>47.887599999999999</v>
       </c>
     </row>
-    <row r="57" spans="2:5">
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>0.11</v>
+      </c>
       <c r="B57" s="1">
         <v>54</v>
       </c>
@@ -4312,7 +4611,10 @@
         <v>47.411499999999997</v>
       </c>
     </row>
-    <row r="58" spans="2:5">
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <v>0.112</v>
+      </c>
       <c r="B58" s="1">
         <v>55</v>
       </c>
@@ -4326,7 +4628,10 @@
         <v>47.009099999999997</v>
       </c>
     </row>
-    <row r="59" spans="2:5">
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <v>0.114</v>
+      </c>
       <c r="B59" s="1">
         <v>56</v>
       </c>
@@ -4340,7 +4645,10 @@
         <v>46.883099999999999</v>
       </c>
     </row>
-    <row r="60" spans="2:5">
+    <row r="60" spans="1:5">
+      <c r="A60">
+        <v>0.11600000000000001</v>
+      </c>
       <c r="B60" s="1">
         <v>57</v>
       </c>
@@ -4354,7 +4662,10 @@
         <v>46.340499999999999</v>
       </c>
     </row>
-    <row r="61" spans="2:5">
+    <row r="61" spans="1:5">
+      <c r="A61">
+        <v>0.11799999999999999</v>
+      </c>
       <c r="B61" s="1">
         <v>58</v>
       </c>
@@ -4368,7 +4679,10 @@
         <v>45.880600000000001</v>
       </c>
     </row>
-    <row r="62" spans="2:5">
+    <row r="62" spans="1:5">
+      <c r="A62">
+        <v>0.12</v>
+      </c>
       <c r="B62" s="1">
         <v>59</v>
       </c>
@@ -4382,7 +4696,10 @@
         <v>45.144500000000001</v>
       </c>
     </row>
-    <row r="63" spans="2:5">
+    <row r="63" spans="1:5">
+      <c r="A63">
+        <v>0.122</v>
+      </c>
       <c r="B63" s="1">
         <v>60</v>
       </c>
@@ -4396,7 +4713,10 @@
         <v>44.85</v>
       </c>
     </row>
-    <row r="64" spans="2:5">
+    <row r="64" spans="1:5">
+      <c r="A64">
+        <v>0.124</v>
+      </c>
       <c r="B64" s="1">
         <v>61</v>
       </c>
@@ -4410,7 +4730,10 @@
         <v>44.366300000000003</v>
       </c>
     </row>
-    <row r="65" spans="2:5">
+    <row r="65" spans="1:5">
+      <c r="A65">
+        <v>0.126</v>
+      </c>
       <c r="B65" s="1">
         <v>62</v>
       </c>
@@ -4424,7 +4747,10 @@
         <v>43.787799999999997</v>
       </c>
     </row>
-    <row r="66" spans="2:5">
+    <row r="66" spans="1:5">
+      <c r="A66">
+        <v>0.128</v>
+      </c>
       <c r="B66" s="1">
         <v>63</v>
       </c>
@@ -4438,7 +4764,10 @@
         <v>43.406100000000002</v>
       </c>
     </row>
-    <row r="67" spans="2:5">
+    <row r="67" spans="1:5">
+      <c r="A67">
+        <v>0.13</v>
+      </c>
       <c r="B67" s="1">
         <v>64</v>
       </c>
@@ -4452,7 +4781,10 @@
         <v>42.808999999999997</v>
       </c>
     </row>
-    <row r="68" spans="2:5">
+    <row r="68" spans="1:5">
+      <c r="A68">
+        <v>0.13200000000000001</v>
+      </c>
       <c r="B68" s="1">
         <v>65</v>
       </c>
@@ -4466,7 +4798,10 @@
         <v>42.048000000000002</v>
       </c>
     </row>
-    <row r="69" spans="2:5">
+    <row r="69" spans="1:5">
+      <c r="A69">
+        <v>0.13400000000000001</v>
+      </c>
       <c r="B69" s="1">
         <v>66</v>
       </c>
@@ -4480,7 +4815,10 @@
         <v>41.112099999999998</v>
       </c>
     </row>
-    <row r="70" spans="2:5">
+    <row r="70" spans="1:5">
+      <c r="A70">
+        <v>0.13600000000000001</v>
+      </c>
       <c r="B70" s="1">
         <v>67</v>
       </c>
@@ -4494,7 +4832,10 @@
         <v>40.116</v>
       </c>
     </row>
-    <row r="71" spans="2:5">
+    <row r="71" spans="1:5">
+      <c r="A71">
+        <v>0.13800000000000001</v>
+      </c>
       <c r="B71" s="1">
         <v>68</v>
       </c>
@@ -4508,7 +4849,10 @@
         <v>39.066699999999997</v>
       </c>
     </row>
-    <row r="72" spans="2:5">
+    <row r="72" spans="1:5">
+      <c r="A72">
+        <v>0.14000000000000001</v>
+      </c>
       <c r="B72" s="1">
         <v>69</v>
       </c>
@@ -4522,7 +4866,10 @@
         <v>38.013100000000001</v>
       </c>
     </row>
-    <row r="73" spans="2:5">
+    <row r="73" spans="1:5">
+      <c r="A73">
+        <v>0.14199999999999999</v>
+      </c>
       <c r="B73" s="1">
         <v>70</v>
       </c>
@@ -4536,7 +4883,10 @@
         <v>36.742800000000003</v>
       </c>
     </row>
-    <row r="74" spans="2:5">
+    <row r="74" spans="1:5">
+      <c r="A74">
+        <v>0.14399999999999999</v>
+      </c>
       <c r="B74" s="1">
         <v>71</v>
       </c>
@@ -4550,7 +4900,10 @@
         <v>35.5976</v>
       </c>
     </row>
-    <row r="75" spans="2:5">
+    <row r="75" spans="1:5">
+      <c r="A75">
+        <v>0.14599999999999999</v>
+      </c>
       <c r="B75" s="1">
         <v>72</v>
       </c>
@@ -4564,7 +4917,10 @@
         <v>34.088799999999999</v>
       </c>
     </row>
-    <row r="76" spans="2:5">
+    <row r="76" spans="1:5">
+      <c r="A76">
+        <v>0.14799999999999999</v>
+      </c>
       <c r="B76" s="1">
         <v>73</v>
       </c>
@@ -4578,7 +4934,10 @@
         <v>32.498199999999997</v>
       </c>
     </row>
-    <row r="77" spans="2:5">
+    <row r="77" spans="1:5">
+      <c r="A77">
+        <v>0.15</v>
+      </c>
       <c r="B77" s="1">
         <v>74</v>
       </c>
@@ -4592,7 +4951,10 @@
         <v>30.5002</v>
       </c>
     </row>
-    <row r="78" spans="2:5">
+    <row r="78" spans="1:5">
+      <c r="A78">
+        <v>0.152</v>
+      </c>
       <c r="B78" s="1">
         <v>75</v>
       </c>
@@ -4606,7 +4968,10 @@
         <v>28.607500000000002</v>
       </c>
     </row>
-    <row r="79" spans="2:5">
+    <row r="79" spans="1:5">
+      <c r="A79">
+        <v>0.154</v>
+      </c>
       <c r="B79" s="1">
         <v>76</v>
       </c>
@@ -4620,7 +4985,10 @@
         <v>26.592300000000002</v>
       </c>
     </row>
-    <row r="80" spans="2:5">
+    <row r="80" spans="1:5">
+      <c r="A80">
+        <v>0.156</v>
+      </c>
       <c r="B80" s="1">
         <v>77</v>
       </c>
@@ -4634,7 +5002,10 @@
         <v>24.443300000000001</v>
       </c>
     </row>
-    <row r="81" spans="2:5">
+    <row r="81" spans="1:5">
+      <c r="A81">
+        <v>0.158</v>
+      </c>
       <c r="B81" s="1">
         <v>78</v>
       </c>
@@ -4648,7 +5019,10 @@
         <v>22.2593</v>
       </c>
     </row>
-    <row r="82" spans="2:5">
+    <row r="82" spans="1:5">
+      <c r="A82">
+        <v>0.16</v>
+      </c>
       <c r="B82" s="1">
         <v>79</v>
       </c>
@@ -4662,7 +5036,10 @@
         <v>20.516999999999999</v>
       </c>
     </row>
-    <row r="83" spans="2:5">
+    <row r="83" spans="1:5">
+      <c r="A83">
+        <v>0.16200000000000001</v>
+      </c>
       <c r="B83" s="1">
         <v>80</v>
       </c>
@@ -4676,7 +5053,10 @@
         <v>19.555499999999999</v>
       </c>
     </row>
-    <row r="84" spans="2:5">
+    <row r="84" spans="1:5">
+      <c r="A84">
+        <v>0.16400000000000001</v>
+      </c>
       <c r="B84" s="1">
         <v>81</v>
       </c>
@@ -4690,7 +5070,10 @@
         <v>19.084399999999999</v>
       </c>
     </row>
-    <row r="85" spans="2:5">
+    <row r="85" spans="1:5">
+      <c r="A85">
+        <v>0.16600000000000001</v>
+      </c>
       <c r="B85" s="1">
         <v>82</v>
       </c>
@@ -4704,7 +5087,10 @@
         <v>19.778199999999998</v>
       </c>
     </row>
-    <row r="86" spans="2:5">
+    <row r="86" spans="1:5">
+      <c r="A86">
+        <v>0.16800000000000001</v>
+      </c>
       <c r="B86" s="1">
         <v>83</v>
       </c>
@@ -4718,7 +5104,10 @@
         <v>20.758800000000001</v>
       </c>
     </row>
-    <row r="87" spans="2:5">
+    <row r="87" spans="1:5">
+      <c r="A87">
+        <v>0.17</v>
+      </c>
       <c r="B87" s="1">
         <v>84</v>
       </c>
@@ -4732,7 +5121,10 @@
         <v>21.804099999999998</v>
       </c>
     </row>
-    <row r="88" spans="2:5">
+    <row r="88" spans="1:5">
+      <c r="A88">
+        <v>0.17199999999999999</v>
+      </c>
       <c r="B88" s="1">
         <v>85</v>
       </c>
@@ -4746,7 +5138,10 @@
         <v>21.8385</v>
       </c>
     </row>
-    <row r="89" spans="2:5">
+    <row r="89" spans="1:5">
+      <c r="A89">
+        <v>0.17399999999999999</v>
+      </c>
       <c r="B89" s="1">
         <v>86</v>
       </c>
@@ -4760,7 +5155,10 @@
         <v>19.674399999999999</v>
       </c>
     </row>
-    <row r="90" spans="2:5">
+    <row r="90" spans="1:5">
+      <c r="A90">
+        <v>0.17599999999999999</v>
+      </c>
       <c r="B90" s="1">
         <v>87</v>
       </c>
@@ -4774,7 +5172,10 @@
         <v>15.865600000000001</v>
       </c>
     </row>
-    <row r="91" spans="2:5">
+    <row r="91" spans="1:5">
+      <c r="A91">
+        <v>0.17799999999999999</v>
+      </c>
       <c r="B91" s="1">
         <v>88</v>
       </c>
@@ -4788,7 +5189,10 @@
         <v>12.234500000000001</v>
       </c>
     </row>
-    <row r="92" spans="2:5">
+    <row r="92" spans="1:5">
+      <c r="A92">
+        <v>0.18</v>
+      </c>
       <c r="B92" s="1">
         <v>89</v>
       </c>
@@ -4802,7 +5206,10 @@
         <v>8.7543900000000008</v>
       </c>
     </row>
-    <row r="93" spans="2:5">
+    <row r="93" spans="1:5">
+      <c r="A93">
+        <v>0.182</v>
+      </c>
       <c r="B93" s="1">
         <v>90</v>
       </c>
@@ -4816,7 +5223,10 @@
         <v>5.9959499999999997</v>
       </c>
     </row>
-    <row r="94" spans="2:5">
+    <row r="94" spans="1:5">
+      <c r="A94">
+        <v>0.184</v>
+      </c>
       <c r="B94" s="1">
         <v>91</v>
       </c>
@@ -4830,7 +5240,10 @@
         <v>4.3690499999999997</v>
       </c>
     </row>
-    <row r="95" spans="2:5">
+    <row r="95" spans="1:5">
+      <c r="A95">
+        <v>0.186</v>
+      </c>
       <c r="B95" s="1">
         <v>92</v>
       </c>
@@ -4844,7 +5257,10 @@
         <v>3.4367100000000002</v>
       </c>
     </row>
-    <row r="96" spans="2:5">
+    <row r="96" spans="1:5">
+      <c r="A96">
+        <v>0.188</v>
+      </c>
       <c r="B96" s="1">
         <v>93</v>
       </c>
@@ -4858,7 +5274,10 @@
         <v>2.9319999999999999</v>
       </c>
     </row>
-    <row r="97" spans="2:5">
+    <row r="97" spans="1:5">
+      <c r="A97">
+        <v>0.19</v>
+      </c>
       <c r="B97" s="1">
         <v>94</v>
       </c>
@@ -4872,7 +5291,10 @@
         <v>2.7303999999999999</v>
       </c>
     </row>
-    <row r="98" spans="2:5">
+    <row r="98" spans="1:5">
+      <c r="A98">
+        <v>0.192</v>
+      </c>
       <c r="B98" s="1">
         <v>95</v>
       </c>
@@ -4886,7 +5308,10 @@
         <v>2.5195400000000001</v>
       </c>
     </row>
-    <row r="99" spans="2:5">
+    <row r="99" spans="1:5">
+      <c r="A99">
+        <v>0.19400000000000001</v>
+      </c>
       <c r="B99" s="1">
         <v>96</v>
       </c>
@@ -4900,7 +5325,10 @@
         <v>2.2783099999999998</v>
       </c>
     </row>
-    <row r="100" spans="2:5">
+    <row r="100" spans="1:5">
+      <c r="A100">
+        <v>0.19600000000000001</v>
+      </c>
       <c r="B100" s="1">
         <v>97</v>
       </c>
@@ -4914,7 +5342,10 @@
         <v>2.17889</v>
       </c>
     </row>
-    <row r="101" spans="2:5">
+    <row r="101" spans="1:5">
+      <c r="A101">
+        <v>0.19800000000000001</v>
+      </c>
       <c r="B101" s="1">
         <v>98</v>
       </c>
@@ -4928,7 +5359,10 @@
         <v>2.0911300000000002</v>
       </c>
     </row>
-    <row r="102" spans="2:5">
+    <row r="102" spans="1:5">
+      <c r="A102">
+        <v>0.2</v>
+      </c>
       <c r="B102" s="1">
         <v>99</v>
       </c>
@@ -4942,7 +5376,10 @@
         <v>2.0794600000000001</v>
       </c>
     </row>
-    <row r="103" spans="2:5">
+    <row r="103" spans="1:5">
+      <c r="A103">
+        <v>0.20200000000000001</v>
+      </c>
       <c r="B103" s="1">
         <v>100</v>
       </c>
@@ -4956,7 +5393,10 @@
         <v>1.99864</v>
       </c>
     </row>
-    <row r="104" spans="2:5">
+    <row r="104" spans="1:5">
+      <c r="A104">
+        <v>0.20399999999999999</v>
+      </c>
       <c r="B104" s="1">
         <v>101</v>
       </c>
@@ -4970,7 +5410,10 @@
         <v>1.9314499999999999</v>
       </c>
     </row>
-    <row r="105" spans="2:5">
+    <row r="105" spans="1:5">
+      <c r="A105">
+        <v>0.20599999999999999</v>
+      </c>
       <c r="B105" s="1">
         <v>102</v>
       </c>
@@ -4984,7 +5427,10 @@
         <v>1.8616999999999999</v>
       </c>
     </row>
-    <row r="106" spans="2:5">
+    <row r="106" spans="1:5">
+      <c r="A106">
+        <v>0.20799999999999999</v>
+      </c>
       <c r="B106" s="1">
         <v>103</v>
       </c>
@@ -4998,7 +5444,10 @@
         <v>1.7582199999999999</v>
       </c>
     </row>
-    <row r="107" spans="2:5">
+    <row r="107" spans="1:5">
+      <c r="A107">
+        <v>0.21</v>
+      </c>
       <c r="B107" s="1">
         <v>104</v>
       </c>
@@ -5012,7 +5461,10 @@
         <v>1.7664</v>
       </c>
     </row>
-    <row r="108" spans="2:5">
+    <row r="108" spans="1:5">
+      <c r="A108">
+        <v>0.21199999999999999</v>
+      </c>
       <c r="B108" s="1">
         <v>105</v>
       </c>
@@ -5026,7 +5478,10 @@
         <v>1.65116</v>
       </c>
     </row>
-    <row r="109" spans="2:5">
+    <row r="109" spans="1:5">
+      <c r="A109">
+        <v>0.214</v>
+      </c>
       <c r="B109" s="1">
         <v>106</v>
       </c>
@@ -5040,7 +5495,10 @@
         <v>1.63984</v>
       </c>
     </row>
-    <row r="110" spans="2:5">
+    <row r="110" spans="1:5">
+      <c r="A110">
+        <v>0.216</v>
+      </c>
       <c r="B110" s="1">
         <v>107</v>
       </c>
@@ -5054,7 +5512,10 @@
         <v>1.6163000000000001</v>
       </c>
     </row>
-    <row r="111" spans="2:5">
+    <row r="111" spans="1:5">
+      <c r="A111">
+        <v>0.218</v>
+      </c>
       <c r="B111" s="1">
         <v>108</v>
       </c>
@@ -5068,7 +5529,10 @@
         <v>1.5594699999999999</v>
       </c>
     </row>
-    <row r="112" spans="2:5">
+    <row r="112" spans="1:5">
+      <c r="A112">
+        <v>0.22</v>
+      </c>
       <c r="B112" s="1">
         <v>109</v>
       </c>
@@ -5082,7 +5546,10 @@
         <v>1.5299400000000001</v>
       </c>
     </row>
-    <row r="113" spans="2:5">
+    <row r="113" spans="1:5">
+      <c r="A113">
+        <v>0.222</v>
+      </c>
       <c r="B113" s="1">
         <v>110</v>
       </c>
@@ -5096,7 +5563,10 @@
         <v>1.48864</v>
       </c>
     </row>
-    <row r="114" spans="2:5">
+    <row r="114" spans="1:5">
+      <c r="A114">
+        <v>0.224</v>
+      </c>
       <c r="B114" s="1">
         <v>111</v>
       </c>
@@ -5110,7 +5580,10 @@
         <v>1.4371400000000001</v>
       </c>
     </row>
-    <row r="115" spans="2:5">
+    <row r="115" spans="1:5">
+      <c r="A115">
+        <v>0.22600000000000001</v>
+      </c>
       <c r="B115" s="1">
         <v>112</v>
       </c>
@@ -5124,7 +5597,10 @@
         <v>1.4030199999999999</v>
       </c>
     </row>
-    <row r="116" spans="2:5">
+    <row r="116" spans="1:5">
+      <c r="A116">
+        <v>0.22800000000000001</v>
+      </c>
       <c r="B116" s="1">
         <v>113</v>
       </c>
@@ -5138,7 +5614,10 @@
         <v>1.3794299999999999</v>
       </c>
     </row>
-    <row r="117" spans="2:5">
+    <row r="117" spans="1:5">
+      <c r="A117">
+        <v>0.23</v>
+      </c>
       <c r="B117" s="1">
         <v>114</v>
       </c>
@@ -5152,7 +5631,10 @@
         <v>1.3529899999999999</v>
       </c>
     </row>
-    <row r="118" spans="2:5">
+    <row r="118" spans="1:5">
+      <c r="A118">
+        <v>0.23200000000000001</v>
+      </c>
       <c r="B118" s="1">
         <v>115</v>
       </c>
@@ -5166,7 +5648,10 @@
         <v>1.3248800000000001</v>
       </c>
     </row>
-    <row r="119" spans="2:5">
+    <row r="119" spans="1:5">
+      <c r="A119">
+        <v>0.23400000000000001</v>
+      </c>
       <c r="B119" s="1">
         <v>116</v>
       </c>
@@ -5180,7 +5665,10 @@
         <v>1.3166599999999999</v>
       </c>
     </row>
-    <row r="120" spans="2:5">
+    <row r="120" spans="1:5">
+      <c r="A120">
+        <v>0.23599999999999999</v>
+      </c>
       <c r="B120" s="1">
         <v>117</v>
       </c>
@@ -5194,7 +5682,10 @@
         <v>1.3059499999999999</v>
       </c>
     </row>
-    <row r="121" spans="2:5">
+    <row r="121" spans="1:5">
+      <c r="A121">
+        <v>0.23799999999999999</v>
+      </c>
       <c r="B121" s="1">
         <v>118</v>
       </c>
@@ -5208,7 +5699,10 @@
         <v>1.29023</v>
       </c>
     </row>
-    <row r="122" spans="2:5">
+    <row r="122" spans="1:5">
+      <c r="A122">
+        <v>0.24</v>
+      </c>
       <c r="B122" s="1">
         <v>119</v>
       </c>
